--- a/Capstone Codes/Data/Singapore_Device_Priority_2022 - Cancelled.xlsx
+++ b/Capstone Codes/Data/Singapore_Device_Priority_2022 - Cancelled.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="150">
   <si>
     <t>Priority #</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>Total Delay</t>
+  </si>
+  <si>
+    <t>FI End Week</t>
+  </si>
+  <si>
+    <t>FI End Year</t>
   </si>
   <si>
     <t>N</t>
@@ -819,13 +825,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC26"/>
+  <dimension ref="A1:AE26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,37 +919,46 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M2" s="2">
+        <v>44474</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -955,19 +970,19 @@
         <v>44474</v>
       </c>
       <c r="U2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="V2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y2">
         <v>1</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -975,158 +990,185 @@
       <c r="AC2">
         <v>0</v>
       </c>
+      <c r="AD2">
+        <v>40</v>
+      </c>
+      <c r="AE2">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3" s="2">
+        <v>44599</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>2022</v>
+      </c>
+      <c r="R3" s="2">
+        <v>44599</v>
+      </c>
+      <c r="U3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V3" t="s">
+        <v>148</v>
+      </c>
+      <c r="W3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>6</v>
+      </c>
+      <c r="AE3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>2022</v>
-      </c>
-      <c r="R3" s="2">
-        <v>44490</v>
-      </c>
-      <c r="U3" t="s">
-        <v>132</v>
-      </c>
-      <c r="V3" t="s">
-        <v>146</v>
-      </c>
-      <c r="W3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" t="s">
+        <v>133</v>
+      </c>
+      <c r="M4" s="2">
+        <v>44562</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>2022</v>
+      </c>
+      <c r="R4" s="2">
+        <v>44562</v>
+      </c>
+      <c r="U4" t="s">
+        <v>135</v>
+      </c>
+      <c r="V4" t="s">
+        <v>148</v>
+      </c>
+      <c r="W4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>52</v>
+      </c>
+      <c r="AE4">
+        <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="5" spans="1:31">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
         <v>59</v>
       </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" t="s">
-        <v>131</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>2022</v>
-      </c>
-      <c r="R4" s="2">
-        <v>44896</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" t="s">
         <v>133</v>
       </c>
-      <c r="V4" t="s">
-        <v>146</v>
-      </c>
-      <c r="W4" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" t="s">
-        <v>125</v>
-      </c>
-      <c r="J5" t="s">
-        <v>131</v>
+      <c r="M5" s="2">
+        <v>44581</v>
       </c>
       <c r="P5">
         <v>4</v>
@@ -1135,22 +1177,22 @@
         <v>2022</v>
       </c>
       <c r="R5" s="2">
-        <v>44579</v>
+        <v>44581</v>
       </c>
       <c r="U5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="V5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y5">
         <v>1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1158,34 +1200,43 @@
       <c r="AC5">
         <v>0</v>
       </c>
+      <c r="AD5">
+        <v>3</v>
+      </c>
+      <c r="AE5">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J6" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M6" s="2">
+        <v>44593</v>
       </c>
       <c r="P6">
         <v>4</v>
@@ -1194,22 +1245,22 @@
         <v>2022</v>
       </c>
       <c r="R6" s="2">
-        <v>44896</v>
+        <v>44593</v>
       </c>
       <c r="U6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y6">
         <v>1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1217,34 +1268,43 @@
       <c r="AC6">
         <v>0</v>
       </c>
+      <c r="AD6">
+        <v>5</v>
+      </c>
+      <c r="AE6">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J7" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M7" s="2">
+        <v>44593</v>
       </c>
       <c r="P7">
         <v>5</v>
@@ -1253,22 +1313,22 @@
         <v>2022</v>
       </c>
       <c r="R7" s="2">
-        <v>44896</v>
+        <v>44593</v>
       </c>
       <c r="U7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="V7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y7">
         <v>1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1276,37 +1336,46 @@
       <c r="AC7">
         <v>0</v>
       </c>
+      <c r="AD7">
+        <v>5</v>
+      </c>
+      <c r="AE7">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J8" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M8" s="2">
+        <v>44639</v>
       </c>
       <c r="P8">
         <v>12</v>
@@ -1318,19 +1387,19 @@
         <v>44639</v>
       </c>
       <c r="U8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="V8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y8">
         <v>1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1338,37 +1407,46 @@
       <c r="AC8">
         <v>0</v>
       </c>
+      <c r="AD8">
+        <v>11</v>
+      </c>
+      <c r="AE8">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J9" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M9" s="2">
+        <v>44650</v>
       </c>
       <c r="P9">
         <v>14</v>
@@ -1380,19 +1458,19 @@
         <v>44650</v>
       </c>
       <c r="U9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="V9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="W9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y9">
         <v>1</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1400,37 +1478,46 @@
       <c r="AC9">
         <v>0</v>
       </c>
+      <c r="AD9">
+        <v>13</v>
+      </c>
+      <c r="AE9">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M10" s="2">
+        <v>44682</v>
       </c>
       <c r="P10">
         <v>15</v>
@@ -1439,22 +1526,22 @@
         <v>2022</v>
       </c>
       <c r="R10" s="2">
-        <v>44896</v>
+        <v>44682</v>
       </c>
       <c r="U10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="V10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y10">
         <v>1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1462,37 +1549,46 @@
       <c r="AC10">
         <v>0</v>
       </c>
+      <c r="AD10">
+        <v>17</v>
+      </c>
+      <c r="AE10">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M11" s="2">
+        <v>44669</v>
       </c>
       <c r="P11">
         <v>15</v>
@@ -1504,19 +1600,19 @@
         <v>44669</v>
       </c>
       <c r="U11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="V11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y11">
         <v>1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1524,34 +1620,43 @@
       <c r="AC11">
         <v>0</v>
       </c>
+      <c r="AD11">
+        <v>16</v>
+      </c>
+      <c r="AE11">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M12" s="2">
+        <v>44682</v>
       </c>
       <c r="P12">
         <v>16</v>
@@ -1560,22 +1665,22 @@
         <v>2022</v>
       </c>
       <c r="R12" s="2">
-        <v>44896</v>
+        <v>44682</v>
       </c>
       <c r="U12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y12">
         <v>1</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1583,34 +1688,43 @@
       <c r="AC12">
         <v>0</v>
       </c>
+      <c r="AD12">
+        <v>17</v>
+      </c>
+      <c r="AE12">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M13" s="2">
+        <v>44682</v>
       </c>
       <c r="P13">
         <v>16</v>
@@ -1619,22 +1733,22 @@
         <v>2022</v>
       </c>
       <c r="R13" s="2">
-        <v>44896</v>
+        <v>44682</v>
       </c>
       <c r="U13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="V13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y13">
         <v>1</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -1642,34 +1756,43 @@
       <c r="AC13">
         <v>0</v>
       </c>
+      <c r="AD13">
+        <v>17</v>
+      </c>
+      <c r="AE13">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M14" s="2">
+        <v>44682</v>
       </c>
       <c r="P14">
         <v>16</v>
@@ -1678,22 +1801,22 @@
         <v>2022</v>
       </c>
       <c r="R14" s="2">
-        <v>44896</v>
+        <v>44682</v>
       </c>
       <c r="U14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="V14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y14">
         <v>1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -1701,34 +1824,43 @@
       <c r="AC14">
         <v>0</v>
       </c>
+      <c r="AD14">
+        <v>17</v>
+      </c>
+      <c r="AE14">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M15" s="2">
+        <v>44675</v>
       </c>
       <c r="P15">
         <v>16</v>
@@ -1740,19 +1872,19 @@
         <v>44675</v>
       </c>
       <c r="U15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="V15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y15">
         <v>1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -1760,34 +1892,43 @@
       <c r="AC15">
         <v>0</v>
       </c>
+      <c r="AD15">
+        <v>16</v>
+      </c>
+      <c r="AE15">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M16" s="2">
+        <v>44713</v>
       </c>
       <c r="P16">
         <v>22</v>
@@ -1796,22 +1937,22 @@
         <v>2022</v>
       </c>
       <c r="R16" s="2">
-        <v>44896</v>
+        <v>44713</v>
       </c>
       <c r="U16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="V16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y16">
         <v>1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -1819,34 +1960,43 @@
       <c r="AC16">
         <v>0</v>
       </c>
+      <c r="AD16">
+        <v>22</v>
+      </c>
+      <c r="AE16">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J17" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M17" s="2">
+        <v>44774</v>
       </c>
       <c r="P17">
         <v>28</v>
@@ -1855,22 +2005,22 @@
         <v>2022</v>
       </c>
       <c r="R17" s="2">
-        <v>44896</v>
+        <v>44774</v>
       </c>
       <c r="U17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y17">
         <v>1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -1878,34 +2028,43 @@
       <c r="AC17">
         <v>0</v>
       </c>
+      <c r="AD17">
+        <v>31</v>
+      </c>
+      <c r="AE17">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J18" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M18" s="2">
+        <v>44774</v>
       </c>
       <c r="P18">
         <v>29</v>
@@ -1914,22 +2073,22 @@
         <v>2022</v>
       </c>
       <c r="R18" s="2">
-        <v>44896</v>
+        <v>44774</v>
       </c>
       <c r="U18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="V18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y18">
         <v>1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
         <v>0</v>
@@ -1937,34 +2096,43 @@
       <c r="AC18">
         <v>0</v>
       </c>
+      <c r="AD18">
+        <v>31</v>
+      </c>
+      <c r="AE18">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J19" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M19" s="2">
+        <v>44805</v>
       </c>
       <c r="P19">
         <v>32</v>
@@ -1973,22 +2141,22 @@
         <v>2022</v>
       </c>
       <c r="R19" s="2">
-        <v>44896</v>
+        <v>44805</v>
       </c>
       <c r="U19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W19" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y19">
         <v>1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -1996,34 +2164,43 @@
       <c r="AC19">
         <v>0</v>
       </c>
+      <c r="AD19">
+        <v>35</v>
+      </c>
+      <c r="AE19">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J20" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M20" s="2">
+        <v>44805</v>
       </c>
       <c r="P20">
         <v>34</v>
@@ -2032,22 +2209,22 @@
         <v>2022</v>
       </c>
       <c r="R20" s="2">
-        <v>44896</v>
+        <v>44805</v>
       </c>
       <c r="U20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="V20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y20">
         <v>1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -2055,34 +2232,43 @@
       <c r="AC20">
         <v>0</v>
       </c>
+      <c r="AD20">
+        <v>35</v>
+      </c>
+      <c r="AE20">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J21" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M21" s="2">
+        <v>44818</v>
       </c>
       <c r="P21">
         <v>37</v>
@@ -2094,19 +2280,19 @@
         <v>44818</v>
       </c>
       <c r="U21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="V21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y21">
         <v>1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
         <v>0</v>
@@ -2114,37 +2300,46 @@
       <c r="AC21">
         <v>0</v>
       </c>
+      <c r="AD21">
+        <v>37</v>
+      </c>
+      <c r="AE21">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M22" s="2">
+        <v>44846</v>
       </c>
       <c r="P22">
         <v>42</v>
@@ -2156,19 +2351,19 @@
         <v>44846</v>
       </c>
       <c r="U22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="V22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W22" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y22">
         <v>1</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
         <v>0</v>
@@ -2176,34 +2371,43 @@
       <c r="AC22">
         <v>0</v>
       </c>
+      <c r="AD22">
+        <v>41</v>
+      </c>
+      <c r="AE22">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J23" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M23" s="2">
+        <v>44902</v>
       </c>
       <c r="P23">
         <v>48</v>
@@ -2212,22 +2416,22 @@
         <v>2022</v>
       </c>
       <c r="R23" s="2">
-        <v>44893</v>
+        <v>44902</v>
       </c>
       <c r="U23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y23">
         <v>1</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -2235,34 +2439,43 @@
       <c r="AC23">
         <v>0</v>
       </c>
+      <c r="AD23">
+        <v>49</v>
+      </c>
+      <c r="AE23">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J24" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M24" s="2">
+        <v>44907</v>
       </c>
       <c r="P24">
         <v>51</v>
@@ -2274,19 +2487,19 @@
         <v>44907</v>
       </c>
       <c r="U24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="V24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y24">
         <v>1</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24">
         <v>0</v>
@@ -2294,34 +2507,43 @@
       <c r="AC24">
         <v>0</v>
       </c>
+      <c r="AD24">
+        <v>50</v>
+      </c>
+      <c r="AE24">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J25" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M25" s="2">
+        <v>44923</v>
       </c>
       <c r="P25">
         <v>53</v>
@@ -2333,19 +2555,19 @@
         <v>44923</v>
       </c>
       <c r="U25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="V25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W25" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y25">
         <v>1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25">
         <v>0</v>
@@ -2353,34 +2575,43 @@
       <c r="AC25">
         <v>0</v>
       </c>
+      <c r="AD25">
+        <v>52</v>
+      </c>
+      <c r="AE25">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J26" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="M26" s="2">
+        <v>44922</v>
       </c>
       <c r="P26">
         <v>53</v>
@@ -2392,25 +2623,31 @@
         <v>44922</v>
       </c>
       <c r="U26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="V26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="W26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Y26">
         <v>1</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26">
         <v>0</v>
       </c>
       <c r="AC26">
         <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>52</v>
+      </c>
+      <c r="AE26">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
